--- a/Document/资料/Template-少.xlsx
+++ b/Document/资料/Template-少.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>Id</t>
   </si>
@@ -63,7 +63,7 @@
     <t>男</t>
   </si>
   <si>
-    <t>2018年3月PETS</t>
+    <t>2018年9月PETS</t>
   </si>
   <si>
     <t>黄浦区</t>
@@ -105,10 +105,7 @@
     <t>浦东新区</t>
   </si>
   <si>
-    <t>上海第二工业大学继续教育学院</t>
-  </si>
-  <si>
-    <t>PETS-2笔试</t>
+    <t>上海工商外国语职业学院</t>
   </si>
   <si>
     <t>000001</t>
@@ -305,6 +302,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -313,6 +317,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -321,6 +371,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -328,119 +438,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -451,73 +448,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,109 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,24 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -708,6 +687,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -719,15 +727,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,11 +748,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,10 +762,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,133 +774,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,14 +1325,14 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="9" max="9" width="29.625" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
@@ -1466,7 +1463,7 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +1542,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>21</v>
@@ -1559,13 +1556,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>27</v>
@@ -1579,16 +1576,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -1599,16 +1596,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
@@ -1619,16 +1616,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1639,16 +1636,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
@@ -1659,19 +1656,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1679,16 +1676,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
@@ -1699,16 +1696,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -1719,19 +1716,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="F12" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1739,16 +1736,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>14</v>
@@ -1759,16 +1756,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>14</v>
@@ -1779,19 +1776,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="F15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1799,19 +1796,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="F16" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Document/资料/Template-少.xlsx
+++ b/Document/资料/Template-少.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>Id</t>
   </si>
@@ -48,75 +48,267 @@
     <t>科目</t>
   </si>
   <si>
+    <t>徐祯</t>
+  </si>
+  <si>
+    <t>861767407@qq.com</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>310103199401275055</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>2018年9月PETS</t>
+  </si>
+  <si>
+    <t>徐汇区</t>
+  </si>
+  <si>
+    <t>上海师范大学继续教育学院</t>
+  </si>
+  <si>
+    <t>PETS-3笔试</t>
+  </si>
+  <si>
+    <t>陈丽君</t>
+  </si>
+  <si>
+    <t>i50393046qiaogu@163.com</t>
+  </si>
+  <si>
+    <t>511381198409140263</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>曾敏华</t>
+  </si>
+  <si>
+    <t>zengminhua0519@163.com</t>
+  </si>
+  <si>
+    <t>320481198002253222</t>
+  </si>
+  <si>
+    <t>崔全丽</t>
+  </si>
+  <si>
+    <t>lindacuiquanli@163.com</t>
+  </si>
+  <si>
+    <t>232321198606139349</t>
+  </si>
+  <si>
+    <t>松江区</t>
+  </si>
+  <si>
+    <t>上海松江区优开能培训学校</t>
+  </si>
+  <si>
+    <t>杨小莹</t>
+  </si>
+  <si>
+    <t>yang20170529@163.com</t>
+  </si>
+  <si>
+    <t>310107198504027223</t>
+  </si>
+  <si>
+    <t>李陈</t>
+  </si>
+  <si>
+    <t>lc022150@163.com</t>
+  </si>
+  <si>
+    <t>432102198112109016</t>
+  </si>
+  <si>
+    <t>韩雪侠</t>
+  </si>
+  <si>
+    <t>913177239@qq.com</t>
+  </si>
+  <si>
+    <t>341221198404012621</t>
+  </si>
+  <si>
+    <t>李梦斐</t>
+  </si>
+  <si>
+    <t>3443079593@qq.com</t>
+  </si>
+  <si>
+    <t>310110198809130043</t>
+  </si>
+  <si>
+    <t>陈琳</t>
+  </si>
+  <si>
+    <t>3086172007@qq.com</t>
+  </si>
+  <si>
+    <t>310107198702170928</t>
+  </si>
+  <si>
+    <t>曹华娟</t>
+  </si>
+  <si>
+    <t>13761908625@163.com</t>
+  </si>
+  <si>
+    <t>341226198310265785</t>
+  </si>
+  <si>
+    <t>杨二虎</t>
+  </si>
+  <si>
+    <t>158714138@qq.com</t>
+  </si>
+  <si>
+    <t>13774390807y</t>
+  </si>
+  <si>
+    <t>342422198107082314</t>
+  </si>
+  <si>
+    <t>张晶</t>
+  </si>
+  <si>
+    <t>15000601496@163.com</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>232321198612210623</t>
+  </si>
+  <si>
+    <t>唐敏</t>
+  </si>
+  <si>
+    <t>zhishuyouw46420@163.com</t>
+  </si>
+  <si>
+    <t>sy123456@</t>
+  </si>
+  <si>
+    <t>511024198606306724</t>
+  </si>
+  <si>
+    <t>张融恩</t>
+  </si>
+  <si>
+    <t>2531284573@qq.com</t>
+  </si>
+  <si>
+    <t>dreaming_ann7</t>
+  </si>
+  <si>
+    <t>310110198801190084</t>
+  </si>
+  <si>
+    <t>吴佩祥</t>
+  </si>
+  <si>
+    <t>365731802@qq.com</t>
+  </si>
+  <si>
+    <t>Oscar13564854465</t>
+  </si>
+  <si>
+    <t>320922198905181415</t>
+  </si>
+  <si>
+    <t>张珂</t>
+  </si>
+  <si>
+    <t>dddzk2010@163.com</t>
+  </si>
+  <si>
+    <t>keke123</t>
+  </si>
+  <si>
+    <t>34162319910708816X</t>
+  </si>
+  <si>
+    <t>王新新</t>
+  </si>
+  <si>
+    <t>13585516127@163.com</t>
+  </si>
+  <si>
+    <t>342221198711014169</t>
+  </si>
+  <si>
+    <t>叶海</t>
+  </si>
+  <si>
+    <t>735592377@qq.com</t>
+  </si>
+  <si>
+    <t>yh735592377</t>
+  </si>
+  <si>
+    <t>31023019890730495X</t>
+  </si>
+  <si>
+    <t>浦东新区</t>
+  </si>
+  <si>
+    <t>上海工商外国语职业学院</t>
+  </si>
+  <si>
+    <t>丁玉烨</t>
+  </si>
+  <si>
+    <t>635828679@qq.com</t>
+  </si>
+  <si>
+    <t>haoxiaoyu1227</t>
+  </si>
+  <si>
+    <t>320681199103232629</t>
+  </si>
+  <si>
     <t>纪良会</t>
   </si>
   <si>
     <t>jlh19781229@163.com</t>
   </si>
   <si>
-    <t>000000</t>
-  </si>
-  <si>
     <t>232331197812291411</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>2018年9月PETS</t>
-  </si>
-  <si>
-    <t>黄浦区</t>
-  </si>
-  <si>
-    <t>上海新世界进修中心</t>
-  </si>
-  <si>
-    <t>PETS-3口试、笔试</t>
-  </si>
-  <si>
     <t>汪治国</t>
   </si>
   <si>
     <t>wzg19781202@163.com</t>
   </si>
   <si>
+    <t>000001</t>
+  </si>
+  <si>
     <t>340828197812021414</t>
   </si>
   <si>
-    <t>金山区</t>
-  </si>
-  <si>
-    <t>上海中博专修学院</t>
-  </si>
-  <si>
-    <t>PETS-3笔试</t>
-  </si>
-  <si>
-    <t>账户1</t>
+    <t>石秀传</t>
   </si>
   <si>
     <t>sxc19751116@163.com</t>
   </si>
   <si>
+    <t>000002</t>
+  </si>
+  <si>
     <t>340121197511169156</t>
   </si>
   <si>
-    <t>浦东新区</t>
-  </si>
-  <si>
-    <t>上海工商外国语职业学院</t>
-  </si>
-  <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>石秀传</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
     <t>王雷</t>
   </si>
   <si>
@@ -177,9 +369,6 @@
     <t>310109197712293225</t>
   </si>
   <si>
-    <t>女</t>
-  </si>
-  <si>
     <t>李运杰</t>
   </si>
   <si>
@@ -240,28 +429,10 @@
     <t>310109198403014514</t>
   </si>
   <si>
-    <t>陈琳</t>
-  </si>
-  <si>
-    <t>3086172007@qq.com</t>
-  </si>
-  <si>
     <t>000013</t>
   </si>
   <si>
-    <t>310107198702170928</t>
-  </si>
-  <si>
-    <t>李梦斐</t>
-  </si>
-  <si>
-    <t>3443079593@qq.com</t>
-  </si>
-  <si>
     <t>000014</t>
-  </si>
-  <si>
-    <t>310110198809130043</t>
   </si>
 </sst>
 </file>
@@ -269,12 +440,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,11 +466,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -309,23 +478,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -340,16 +501,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,21 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -385,8 +538,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,24 +562,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,6 +592,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -438,6 +606,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,175 +624,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +833,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -668,50 +864,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,7 +902,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,10 +938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,37 +950,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -813,98 +989,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,6 +1132,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -963,9 +1199,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -1322,15 +1555,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
@@ -1371,104 +1604,625 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+      <c r="F3" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:10">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
+      <c r="I5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:10">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:10">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14">
+        <v>12345678</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="PETS-3口试、笔试" tooltip="http://order.etest.net.cn/select/index/12/javascript:void(0)"/>
+    <hyperlink ref="C2" r:id="rId1" display="861767407@qq.com"/>
+    <hyperlink ref="C6" r:id="rId2" display="yang20170529@163.com"/>
+    <hyperlink ref="C14" r:id="rId3" display="zhishuyouw46420@163.com" tooltip="mailto:zhishuyouw46420@163.com"/>
+    <hyperlink ref="I5" r:id="rId4" display="上海松江区优开能培训学校" tooltip="http://order.etest.net.cn/select/index/12/javascript:void(0)"/>
+    <hyperlink ref="I8" r:id="rId4" display="上海松江区优开能培训学校" tooltip="http://order.etest.net.cn/select/index/12/javascript:void(0)"/>
+    <hyperlink ref="I10" r:id="rId4" display="上海松江区优开能培训学校" tooltip="http://order.etest.net.cn/select/index/12/javascript:void(0)"/>
+    <hyperlink ref="I12" r:id="rId4" display="上海松江区优开能培训学校" tooltip="http://order.etest.net.cn/select/index/12/javascript:void(0)"/>
+    <hyperlink ref="I14" r:id="rId4" display="上海松江区优开能培训学校" tooltip="http://order.etest.net.cn/select/index/12/javascript:void(0)"/>
+    <hyperlink ref="I17" r:id="rId4" display="上海松江区优开能培训学校" tooltip="http://order.etest.net.cn/select/index/12/javascript:void(0)"/>
+    <hyperlink ref="I18" r:id="rId4" display="上海松江区优开能培训学校" tooltip="http://order.etest.net.cn/select/index/12/javascript:void(0)"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1516,16 +2270,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>13</v>
+      <c r="E2" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
@@ -1536,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>14</v>
@@ -1556,16 +2310,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>27</v>
+        <v>95</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>14</v>
@@ -1576,16 +2330,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>36</v>
+        <v>99</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
@@ -1596,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>40</v>
+        <v>103</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>14</v>
@@ -1616,16 +2370,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>14</v>
@@ -1636,16 +2390,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>48</v>
+        <v>111</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>14</v>
@@ -1656,19 +2410,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>52</v>
+        <v>115</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1676,16 +2430,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
@@ -1696,16 +2450,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -1716,19 +2470,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1736,16 +2490,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>14</v>
@@ -1756,16 +2510,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>73</v>
+        <v>135</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>14</v>
@@ -1776,19 +2530,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>77</v>
+        <v>137</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1796,19 +2550,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>81</v>
+        <v>138</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
